--- a/xlsx/垮掉的一代_intext.xlsx
+++ b/xlsx/垮掉的一代_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>垮掉的一代</t>
   </si>
@@ -29,13 +29,13 @@
     <t>后现代主义文学</t>
   </si>
   <si>
-    <t>政策_政策_美國_垮掉的一代</t>
+    <t>政策_政策_美国_垮掉的一代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>存在主義文學</t>
+    <t>存在主义文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%92%E8%AF%9E%E6%B4%BE%E6%88%8F%E5%89%A7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E5%87%B1%E9%AD%AF%E4%BA%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>傑克·凱魯亞克</t>
+    <t>杰克·凯鲁亚克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3%E4%B8%BB%E4%B9%89</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B8%E9%AB%94%E5%8D%88%E9%A4%90</t>
   </si>
   <si>
-    <t>裸體午餐</t>
+    <t>裸体午餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>同性戀</t>
+    <t>同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>地鐵</t>
+    <t>地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E5%93%81</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%B7%E7%AB%8A</t>
   </si>
   <si>
-    <t>偷竊</t>
+    <t>偷窃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E9%99%A2</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%9B%B7%E5%B8%BD</t>
   </si>
   <si>
-    <t>貝雷帽</t>
+    <t>贝雷帽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%BE%99%C2%B7%E7%99%BD%E5%85%B0%E5%BA%A6</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>法蘭克福國際機場</t>
+    <t>法兰克福国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>藍調</t>
+    <t>蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AB%E9%A0%AD%E5%9B%9B%E6%A8%82%E9%9A%8A</t>
   </si>
   <si>
-    <t>披頭四樂隊</t>
+    <t>披头四乐队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E5%8B%83%C2%B7%E8%BF%AA%E4%BC%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E5%90%89</t>
   </si>
   <si>
-    <t>約翰·凱吉</t>
+    <t>约翰·凯吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%A4%E6%80%92%E7%9A%84%E9%9D%92%E5%B9%B4</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E5%B8%83%E8%90%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>傑克·布萊克</t>
+    <t>杰克·布莱克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E6%B5%81%E6%96%87%E5%AD%A6</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A1%9E%E7%88%BE%C2%B7%E6%99%AE%E9%AD%AF%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>馬塞爾·普魯斯特</t>
+    <t>马塞尔·普鲁斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%A4%A7%E8%A1%9B%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·大衛·梭羅</t>
+    <t>亨利·大卫·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -617,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>客觀主義</t>
+    <t>客观主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%A6%8F%E5%85%8B%E7%B4%8D</t>
   </si>
   <si>
-    <t>威廉·福克納</t>
+    <t>威廉·福克纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E4%B9%94%E4%BC%8A%E6%96%AF</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%BC%A0</t>
@@ -707,31 +707,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E6%96%BD%E8%80%90%E5%BE%B7</t>
   </si>
   <si>
-    <t>蓋瑞·施耐德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82</t>
   </si>
   <si>
-    <t>爵士樂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%9F%8F%E6%B4%9B%E8%8C%B2</t>
   </si>
   <si>
-    <t>威廉·柏洛茲</t>
+    <t>威廉·柏洛兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
@@ -761,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古典主義文學</t>
+    <t>古典主义文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典主義</t>
+    <t>古典主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E6%96%87%E5%AD%A6</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%B1%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>意象主義</t>
+    <t>意象主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%8E%B0%E5%AE%9E%E4%B8%BB%E4%B9%89%E6%96%87%E5%AD%A6</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E5%B9%BB%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>魔幻現實主義</t>
+    <t>魔幻现实主义</t>
   </si>
 </sst>
 </file>
@@ -4603,7 +4594,7 @@
         <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4658,10 +4649,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4687,10 +4678,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4716,10 +4707,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4745,10 +4736,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4803,10 +4794,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>12</v>
@@ -4832,10 +4823,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4861,10 +4852,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4890,10 +4881,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4919,10 +4910,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4948,10 +4939,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -4977,10 +4968,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5006,10 +4997,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5035,10 +5026,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5064,10 +5055,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5093,10 +5084,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5122,10 +5113,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -5151,10 +5142,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5180,10 +5171,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5209,10 +5200,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5238,10 +5229,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5267,10 +5258,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5296,10 +5287,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
